--- a/_worklist/工作计划2018.xlsx
+++ b/_worklist/工作计划2018.xlsx
@@ -41833,7 +41833,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41848,7 +41848,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="29.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/_worklist/工作计划2018.xlsx
+++ b/_worklist/工作计划2018.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3291" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="580">
   <si>
     <t xml:space="preserve">易欧思员工个人周工作计划表</t>
   </si>
@@ -1028,13 +1028,13 @@
     <t xml:space="preserve">计划周期：   月  日—   月   日</t>
   </si>
   <si>
-    <t xml:space="preserve">计划周期：   11月5日—11月11日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover翻译问题沟通解决</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover错误节点修改</t>
+    <t xml:space="preserve">计划周期：   11月12日—11月18日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover节点修改及型材角度检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOSS2018价格计算测试</t>
   </si>
   <si>
     <t xml:space="preserve">姓名：陈奕欣</t>
@@ -2041,7 +2041,7 @@
   <dimension ref="A1:G407"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C136" activeCellId="0" sqref="C136"/>
+      <selection pane="topLeft" activeCell="C136" activeCellId="1" sqref="A1:G19 C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6406,7 +6406,7 @@
   <dimension ref="A1:G721"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15229,7 +15229,7 @@
   <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18112,7 +18112,7 @@
   <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20995,7 +20995,7 @@
   <dimension ref="A1:G294"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A255" activeCellId="0" sqref="A255"/>
+      <selection pane="topLeft" activeCell="A255" activeCellId="1" sqref="A1:G19 A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25099,7 +25099,7 @@
   <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A159" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C175" activeCellId="0" sqref="C175"/>
+      <selection pane="topLeft" activeCell="C175" activeCellId="1" sqref="A1:G19 C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28047,7 +28047,7 @@
   <dimension ref="A1:G624"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
+      <selection pane="topLeft" activeCell="A85" activeCellId="1" sqref="A1:G19 A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35222,7 +35222,7 @@
   <dimension ref="A1:G624"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+      <selection pane="topLeft" activeCell="J16" activeCellId="1" sqref="A1:G19 J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41832,8 +41832,8 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41902,9 +41902,7 @@
       <c r="B4" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="5"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -41917,9 +41915,7 @@
       <c r="B5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -42100,7 +42096,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/_worklist/工作计划2018.xlsx
+++ b/_worklist/工作计划2018.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3289" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="588">
   <si>
     <t xml:space="preserve">易欧思员工个人周工作计划表</t>
   </si>
@@ -1031,10 +1031,34 @@
     <t xml:space="preserve">计划周期：   11月12日—11月18日</t>
   </si>
   <si>
-    <t xml:space="preserve">Cover节点修改及型材角度检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EOSS2018价格计算测试</t>
+    <t xml:space="preserve">胶条硅胶替换及计算价格处理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">线材订购单计算错误处理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover EF60节点修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve">报告批量打印问题解决</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自定义模型修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新建吉喆帐号配置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover节点扣盖型材修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve">报告尺寸线问题解决</t>
+  </si>
+  <si>
+    <t xml:space="preserve">挡水板检查</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JoPPS用户添加数据库</t>
   </si>
   <si>
     <t xml:space="preserve">姓名：陈奕欣</t>
@@ -2041,7 +2065,7 @@
   <dimension ref="A1:G407"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C136" activeCellId="1" sqref="A1:G19 C136"/>
+      <selection pane="topLeft" activeCell="C136" activeCellId="0" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6406,7 +6430,7 @@
   <dimension ref="A1:G721"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="A1:G19"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6434,11 +6458,11 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -6473,10 +6497,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="7"/>
@@ -6488,7 +6512,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>11</v>
@@ -6503,7 +6527,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>11</v>
@@ -6518,7 +6542,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>11</v>
@@ -6657,11 +6681,11 @@
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -6696,10 +6720,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
@@ -6711,7 +6735,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>11</v>
@@ -6883,11 +6907,11 @@
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -6922,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>11</v>
@@ -7109,11 +7133,11 @@
     </row>
     <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="3" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -7148,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>11</v>
@@ -7161,7 +7185,7 @@
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7169,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>11</v>
@@ -7190,7 +7214,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>11</v>
@@ -7211,7 +7235,7 @@
         <v>4</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>11</v>
@@ -7232,7 +7256,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>11</v>
@@ -7253,7 +7277,7 @@
         <v>6</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>11</v>
@@ -7274,7 +7298,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>11</v>
@@ -7295,7 +7319,7 @@
         <v>8</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>11</v>
@@ -7407,11 +7431,11 @@
     </row>
     <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="3" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -7446,7 +7470,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>11</v>
@@ -7465,7 +7489,7 @@
         <v>2</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>11</v>
@@ -7484,7 +7508,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>11</v>
@@ -7503,7 +7527,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>11</v>
@@ -7522,7 +7546,7 @@
         <v>5</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>11</v>
@@ -7541,7 +7565,7 @@
         <v>6</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>11</v>
@@ -7560,7 +7584,7 @@
         <v>7</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>11</v>
@@ -7579,7 +7603,7 @@
         <v>8</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>11</v>
@@ -7689,11 +7713,11 @@
     </row>
     <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="3" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -7728,7 +7752,7 @@
         <v>1</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>11</v>
@@ -7743,7 +7767,7 @@
         <v>2</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>11</v>
@@ -7758,7 +7782,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>11</v>
@@ -7919,11 +7943,11 @@
     </row>
     <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="3" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -7958,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="5"/>
@@ -7971,7 +7995,7 @@
         <v>2</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="5"/>
@@ -7984,7 +8008,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="5"/>
@@ -8143,11 +8167,11 @@
     </row>
     <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="3" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -8182,7 +8206,7 @@
         <v>1</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="5"/>
@@ -8195,7 +8219,7 @@
         <v>2</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="5"/>
@@ -8208,7 +8232,7 @@
         <v>3</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="5"/>
@@ -8221,7 +8245,7 @@
         <v>4</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="5"/>
@@ -8369,11 +8393,11 @@
     </row>
     <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="3" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -8408,7 +8432,7 @@
         <v>1</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>11</v>
@@ -8595,7 +8619,7 @@
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="3" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -8630,7 +8654,7 @@
         <v>1</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>11</v>
@@ -8852,7 +8876,7 @@
         <v>1</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>11</v>
@@ -8867,7 +8891,7 @@
         <v>2</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>11</v>
@@ -8882,7 +8906,7 @@
         <v>3</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>11</v>
@@ -8897,7 +8921,7 @@
         <v>4</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>11</v>
@@ -9051,7 +9075,7 @@
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="3" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -9086,7 +9110,7 @@
         <v>1</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>11</v>
@@ -9105,7 +9129,7 @@
         <v>2</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>11</v>
@@ -9285,7 +9309,7 @@
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="3" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -9320,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>11</v>
@@ -9339,7 +9363,7 @@
         <v>2</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>11</v>
@@ -9519,7 +9543,7 @@
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="3" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -9554,7 +9578,7 @@
         <v>1</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>11</v>
@@ -9575,7 +9599,7 @@
         <v>2</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>11</v>
@@ -9596,7 +9620,7 @@
         <v>3</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>11</v>
@@ -9617,7 +9641,7 @@
         <v>4</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>11</v>
@@ -9777,7 +9801,7 @@
       </c>
       <c r="B281" s="2"/>
       <c r="C281" s="3" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -9812,7 +9836,7 @@
         <v>1</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>11</v>
@@ -9827,7 +9851,7 @@
         <v>2</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>11</v>
@@ -9842,7 +9866,7 @@
         <v>3</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>11</v>
@@ -9857,7 +9881,7 @@
         <v>4</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>11</v>
@@ -9887,7 +9911,7 @@
         <v>6</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>11</v>
@@ -10019,7 +10043,7 @@
       </c>
       <c r="B301" s="2"/>
       <c r="C301" s="3" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -10054,7 +10078,7 @@
         <v>1</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>11</v>
@@ -10069,7 +10093,7 @@
         <v>2</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C304" s="0" t="s">
         <v>11</v>
@@ -10084,7 +10108,7 @@
         <v>3</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>11</v>
@@ -10099,7 +10123,7 @@
         <v>4</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>11</v>
@@ -10114,7 +10138,7 @@
         <v>5</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>11</v>
@@ -10129,7 +10153,7 @@
         <v>6</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>11</v>
@@ -10144,7 +10168,7 @@
         <v>7</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>11</v>
@@ -10159,7 +10183,7 @@
         <v>8</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>11</v>
@@ -10174,7 +10198,7 @@
         <v>9</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>11</v>
@@ -10189,7 +10213,7 @@
         <v>10</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>11</v>
@@ -10204,7 +10228,7 @@
         <v>11</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C313" s="9" t="s">
         <v>11</v>
@@ -10219,7 +10243,7 @@
         <v>12</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C314" s="9" t="s">
         <v>11</v>
@@ -10234,7 +10258,7 @@
         <v>13</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C315" s="9" t="s">
         <v>11</v>
@@ -10249,7 +10273,7 @@
         <v>14</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C316" s="9" t="s">
         <v>11</v>
@@ -10297,7 +10321,7 @@
       </c>
       <c r="B321" s="2"/>
       <c r="C321" s="3" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -10332,7 +10356,7 @@
         <v>1</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>11</v>
@@ -10347,7 +10371,7 @@
         <v>2</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>11</v>
@@ -10362,7 +10386,7 @@
         <v>3</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>11</v>
@@ -10377,7 +10401,7 @@
         <v>4</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>11</v>
@@ -10392,7 +10416,7 @@
         <v>5</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>11</v>
@@ -10535,7 +10559,7 @@
       </c>
       <c r="B341" s="2"/>
       <c r="C341" s="3" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -10570,7 +10594,7 @@
         <v>1</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>11</v>
@@ -10589,7 +10613,7 @@
         <v>2</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C344" s="6" t="s">
         <v>11</v>
@@ -10608,7 +10632,7 @@
         <v>3</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>11</v>
@@ -10627,7 +10651,7 @@
         <v>4</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="C346" s="6" t="s">
         <v>11</v>
@@ -10646,7 +10670,7 @@
         <v>5</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C347" s="6" t="s">
         <v>11</v>
@@ -10684,7 +10708,7 @@
         <v>7</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>11</v>
@@ -10703,7 +10727,7 @@
         <v>8</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C350" s="6" t="s">
         <v>11</v>
@@ -10722,7 +10746,7 @@
         <v>9</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>11</v>
@@ -10741,7 +10765,7 @@
         <v>10</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C352" s="6" t="s">
         <v>11</v>
@@ -10760,7 +10784,7 @@
         <v>11</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C353" s="6" t="s">
         <v>11</v>
@@ -10779,7 +10803,7 @@
         <v>12</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C354" s="6" t="s">
         <v>11</v>
@@ -10798,7 +10822,7 @@
         <v>13</v>
       </c>
       <c r="B355" s="9" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C355" s="6" t="s">
         <v>11</v>
@@ -10817,7 +10841,7 @@
         <v>14</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C356" s="6" t="s">
         <v>11</v>
@@ -10836,7 +10860,7 @@
         <v>15</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C357" s="6" t="s">
         <v>11</v>
@@ -10855,7 +10879,7 @@
         <v>16</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C358" s="6" t="s">
         <v>11</v>
@@ -10893,7 +10917,7 @@
         <v>18</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C360" s="6" t="s">
         <v>11</v>
@@ -10930,7 +10954,7 @@
       </c>
       <c r="B364" s="2"/>
       <c r="C364" s="3" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -10965,7 +10989,7 @@
         <v>1</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>11</v>
@@ -11007,7 +11031,7 @@
         <v>3</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C368" s="6" t="s">
         <v>11</v>
@@ -11028,7 +11052,7 @@
         <v>4</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>11</v>
@@ -11049,7 +11073,7 @@
         <v>5</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C370" s="6" t="s">
         <v>11</v>
@@ -11070,7 +11094,7 @@
         <v>6</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C371" s="6" t="s">
         <v>11</v>
@@ -11091,7 +11115,7 @@
         <v>7</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C372" s="6" t="s">
         <v>11</v>
@@ -11112,7 +11136,7 @@
         <v>8</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C373" s="6" t="s">
         <v>11</v>
@@ -11133,7 +11157,7 @@
         <v>9</v>
       </c>
       <c r="B374" s="18" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>11</v>
@@ -11154,7 +11178,7 @@
         <v>10</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="C375" s="6" t="s">
         <v>11</v>
@@ -11175,7 +11199,7 @@
         <v>11</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>11</v>
@@ -11196,7 +11220,7 @@
         <v>12</v>
       </c>
       <c r="B377" s="18" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>11</v>
@@ -11217,7 +11241,7 @@
         <v>13</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C378" s="6" t="s">
         <v>11</v>
@@ -11238,7 +11262,7 @@
         <v>14</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>11</v>
@@ -11259,7 +11283,7 @@
         <v>15</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>11</v>
@@ -11298,7 +11322,7 @@
       </c>
       <c r="B384" s="2"/>
       <c r="C384" s="3" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -11333,7 +11357,7 @@
         <v>1</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C386" s="6" t="s">
         <v>11</v>
@@ -11354,7 +11378,7 @@
         <v>2</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C387" s="6" t="s">
         <v>11</v>
@@ -11375,7 +11399,7 @@
         <v>3</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C388" s="6" t="s">
         <v>11</v>
@@ -11396,7 +11420,7 @@
         <v>4</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="C389" s="6" t="s">
         <v>11</v>
@@ -11417,7 +11441,7 @@
         <v>5</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>11</v>
@@ -11438,7 +11462,7 @@
         <v>6</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C391" s="7" t="s">
         <v>11</v>
@@ -11459,7 +11483,7 @@
         <v>7</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C392" s="7" t="s">
         <v>11</v>
@@ -11480,7 +11504,7 @@
         <v>8</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C393" s="6" t="s">
         <v>11</v>
@@ -11501,7 +11525,7 @@
         <v>9</v>
       </c>
       <c r="B394" s="9" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C394" s="9" t="s">
         <v>11</v>
@@ -11522,7 +11546,7 @@
         <v>10</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C395" s="9" t="s">
         <v>11</v>
@@ -11543,7 +11567,7 @@
         <v>11</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C396" s="9" t="s">
         <v>11</v>
@@ -11564,7 +11588,7 @@
         <v>12</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C397" s="9" t="s">
         <v>11</v>
@@ -11585,7 +11609,7 @@
         <v>13</v>
       </c>
       <c r="B398" s="9" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C398" s="9" t="s">
         <v>11</v>
@@ -11606,7 +11630,7 @@
         <v>14</v>
       </c>
       <c r="B399" s="9" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C399" s="9" t="s">
         <v>11</v>
@@ -11627,7 +11651,7 @@
         <v>15</v>
       </c>
       <c r="B400" s="9" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C400" s="9" t="s">
         <v>11</v>
@@ -11648,7 +11672,7 @@
         <v>16</v>
       </c>
       <c r="B401" s="9" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="C401" s="9" t="s">
         <v>11</v>
@@ -11669,7 +11693,7 @@
         <v>17</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C402" s="9" t="s">
         <v>11</v>
@@ -11690,7 +11714,7 @@
         <v>18</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C403" s="9" t="s">
         <v>11</v>
@@ -11711,7 +11735,7 @@
         <v>19</v>
       </c>
       <c r="B404" s="9" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C404" s="9" t="s">
         <v>11</v>
@@ -11749,7 +11773,7 @@
       </c>
       <c r="B408" s="2"/>
       <c r="C408" s="3" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -11784,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>11</v>
@@ -11799,7 +11823,7 @@
         <v>2</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="C411" s="6"/>
       <c r="D411" s="5"/>
@@ -11812,7 +11836,7 @@
         <v>3</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="C412" s="6"/>
       <c r="D412" s="5"/>
@@ -11825,7 +11849,7 @@
         <v>4</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="C413" s="6"/>
       <c r="D413" s="5"/>
@@ -11838,7 +11862,7 @@
         <v>5</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="C414" s="6"/>
       <c r="D414" s="5"/>
@@ -11978,7 +12002,7 @@
       </c>
       <c r="B428" s="2"/>
       <c r="C428" s="3" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -12013,7 +12037,7 @@
         <v>1</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C430" s="6" t="s">
         <v>11</v>
@@ -12034,7 +12058,7 @@
         <v>2</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C431" s="6" t="s">
         <v>11</v>
@@ -12055,7 +12079,7 @@
         <v>3</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>11</v>
@@ -12076,7 +12100,7 @@
         <v>4</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="C433" s="6" t="s">
         <v>11</v>
@@ -12097,7 +12121,7 @@
         <v>5</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C434" s="6" t="s">
         <v>11</v>
@@ -12118,7 +12142,7 @@
         <v>6</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>11</v>
@@ -12139,7 +12163,7 @@
         <v>7</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C436" s="7" t="s">
         <v>11</v>
@@ -12160,7 +12184,7 @@
         <v>8</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="C437" s="7" t="s">
         <v>11</v>
@@ -12181,7 +12205,7 @@
         <v>9</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C438" s="7" t="s">
         <v>11</v>
@@ -12202,7 +12226,7 @@
         <v>10</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="C439" s="6" t="s">
         <v>11</v>
@@ -12223,7 +12247,7 @@
         <v>11</v>
       </c>
       <c r="B440" s="9" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="C440" s="9" t="s">
         <v>11</v>
@@ -12244,7 +12268,7 @@
         <v>12</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="C441" s="9" t="s">
         <v>11</v>
@@ -12265,7 +12289,7 @@
         <v>13</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="C442" s="9" t="s">
         <v>11</v>
@@ -12286,7 +12310,7 @@
         <v>14</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C443" s="9" t="s">
         <v>11</v>
@@ -12307,7 +12331,7 @@
         <v>15</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C444" s="9" t="s">
         <v>11</v>
@@ -12345,7 +12369,7 @@
       </c>
       <c r="B448" s="2"/>
       <c r="C448" s="3" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -12380,7 +12404,7 @@
         <v>1</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C450" s="6" t="s">
         <v>11</v>
@@ -12401,7 +12425,7 @@
         <v>2</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="C451" s="6" t="s">
         <v>11</v>
@@ -12422,7 +12446,7 @@
         <v>3</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C452" s="6" t="s">
         <v>11</v>
@@ -12443,7 +12467,7 @@
         <v>4</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="C453" s="6" t="s">
         <v>11</v>
@@ -12464,7 +12488,7 @@
         <v>5</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C454" s="6" t="s">
         <v>11</v>
@@ -12485,7 +12509,7 @@
         <v>6</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="C455" s="6" t="s">
         <v>11</v>
@@ -12506,7 +12530,7 @@
         <v>7</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C456" s="6" t="s">
         <v>11</v>
@@ -12527,7 +12551,7 @@
         <v>8</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C457" s="6" t="s">
         <v>11</v>
@@ -12548,7 +12572,7 @@
         <v>9</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>11</v>
@@ -12569,7 +12593,7 @@
         <v>10</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="C459" s="6" t="s">
         <v>11</v>
@@ -12590,7 +12614,7 @@
         <v>11</v>
       </c>
       <c r="B460" s="9" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="C460" s="6" t="s">
         <v>11</v>
@@ -12611,7 +12635,7 @@
         <v>12</v>
       </c>
       <c r="B461" s="9" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="C461" s="6" t="s">
         <v>11</v>
@@ -12632,7 +12656,7 @@
         <v>13</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="C462" s="6" t="s">
         <v>11</v>
@@ -12695,7 +12719,7 @@
         <v>16</v>
       </c>
       <c r="B465" s="9" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C465" s="6" t="s">
         <v>11</v>
@@ -12716,7 +12740,7 @@
         <v>17</v>
       </c>
       <c r="B466" s="9" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="C466" s="6" t="s">
         <v>11</v>
@@ -12754,7 +12778,7 @@
       </c>
       <c r="B470" s="2"/>
       <c r="C470" s="3" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
@@ -12789,7 +12813,7 @@
         <v>1</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>11</v>
@@ -12810,7 +12834,7 @@
         <v>2</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C473" s="6" t="s">
         <v>11</v>
@@ -12831,7 +12855,7 @@
         <v>3</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>11</v>
@@ -12852,7 +12876,7 @@
         <v>4</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C475" s="6" t="s">
         <v>11</v>
@@ -12873,7 +12897,7 @@
         <v>5</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="C476" s="6" t="s">
         <v>11</v>
@@ -12894,7 +12918,7 @@
         <v>6</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="C477" s="6" t="s">
         <v>11</v>
@@ -12915,7 +12939,7 @@
         <v>7</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C478" s="6" t="s">
         <v>11</v>
@@ -12936,7 +12960,7 @@
         <v>8</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="C479" s="6" t="s">
         <v>11</v>
@@ -12957,7 +12981,7 @@
         <v>9</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C480" s="6" t="s">
         <v>11</v>
@@ -12978,7 +13002,7 @@
         <v>10</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C481" s="6" t="s">
         <v>11</v>
@@ -12999,7 +13023,7 @@
         <v>11</v>
       </c>
       <c r="B482" s="9" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C482" s="6" t="s">
         <v>11</v>
@@ -13020,7 +13044,7 @@
         <v>12</v>
       </c>
       <c r="B483" s="9" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="C483" s="6" t="s">
         <v>11</v>
@@ -13041,7 +13065,7 @@
         <v>13</v>
       </c>
       <c r="B484" s="9" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C484" s="6" t="s">
         <v>11</v>
@@ -13062,7 +13086,7 @@
         <v>14</v>
       </c>
       <c r="B485" s="9" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="C485" s="6" t="s">
         <v>11</v>
@@ -13083,7 +13107,7 @@
         <v>15</v>
       </c>
       <c r="B486" s="9" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C486" s="6" t="s">
         <v>11</v>
@@ -13121,7 +13145,7 @@
       </c>
       <c r="B490" s="2"/>
       <c r="C490" s="3" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
@@ -13156,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C492" s="6" t="s">
         <v>11</v>
@@ -13177,7 +13201,7 @@
         <v>2</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C493" s="6" t="s">
         <v>11</v>
@@ -13198,7 +13222,7 @@
         <v>3</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C494" s="6" t="s">
         <v>11</v>
@@ -13219,7 +13243,7 @@
         <v>4</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C495" s="6" t="s">
         <v>11</v>
@@ -13240,7 +13264,7 @@
         <v>5</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="C496" s="6" t="s">
         <v>11</v>
@@ -13282,7 +13306,7 @@
         <v>7</v>
       </c>
       <c r="B498" s="8" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C498" s="6" t="s">
         <v>11</v>
@@ -13303,7 +13327,7 @@
         <v>8</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="C499" s="6" t="s">
         <v>11</v>
@@ -13324,7 +13348,7 @@
         <v>9</v>
       </c>
       <c r="B500" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="C500" s="6" t="s">
         <v>11</v>
@@ -13345,7 +13369,7 @@
         <v>10</v>
       </c>
       <c r="B501" s="6" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="C501" s="6" t="s">
         <v>11</v>
@@ -13366,7 +13390,7 @@
         <v>11</v>
       </c>
       <c r="B502" s="9" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C502" s="6" t="s">
         <v>11</v>
@@ -13387,7 +13411,7 @@
         <v>12</v>
       </c>
       <c r="B503" s="9" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="C503" s="6" t="s">
         <v>11</v>
@@ -13408,7 +13432,7 @@
         <v>13</v>
       </c>
       <c r="B504" s="9" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="C504" s="6" t="s">
         <v>11</v>
@@ -13429,7 +13453,7 @@
         <v>14</v>
       </c>
       <c r="B505" s="9" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="C505" s="6" t="s">
         <v>11</v>
@@ -13488,7 +13512,7 @@
       </c>
       <c r="B514" s="2"/>
       <c r="C514" s="3" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
@@ -13523,7 +13547,7 @@
         <v>1</v>
       </c>
       <c r="B516" s="6" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C516" s="6" t="s">
         <v>11</v>
@@ -13544,7 +13568,7 @@
         <v>2</v>
       </c>
       <c r="B517" s="6" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="C517" s="6" t="s">
         <v>11</v>
@@ -13565,7 +13589,7 @@
         <v>3</v>
       </c>
       <c r="B518" s="6" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C518" s="6" t="s">
         <v>11</v>
@@ -13586,7 +13610,7 @@
         <v>4</v>
       </c>
       <c r="B519" s="6" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="C519" s="6" t="s">
         <v>11</v>
@@ -13607,7 +13631,7 @@
         <v>5</v>
       </c>
       <c r="B520" s="6" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C520" s="6" t="s">
         <v>11</v>
@@ -13628,7 +13652,7 @@
         <v>6</v>
       </c>
       <c r="B521" s="6" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="C521" s="6" t="s">
         <v>11</v>
@@ -13765,7 +13789,7 @@
       </c>
       <c r="B540" s="2"/>
       <c r="C540" s="3" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
@@ -13800,7 +13824,7 @@
         <v>1</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C542" s="6" t="s">
         <v>11</v>
@@ -13821,7 +13845,7 @@
         <v>2</v>
       </c>
       <c r="B543" s="6" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="C543" s="6" t="s">
         <v>11</v>
@@ -13842,7 +13866,7 @@
         <v>3</v>
       </c>
       <c r="B544" s="6" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="C544" s="6" t="s">
         <v>11</v>
@@ -13863,7 +13887,7 @@
         <v>4</v>
       </c>
       <c r="B545" s="6" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C545" s="6" t="s">
         <v>11</v>
@@ -13884,7 +13908,7 @@
         <v>5</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="C546" s="6" t="s">
         <v>11</v>
@@ -13905,7 +13929,7 @@
         <v>6</v>
       </c>
       <c r="B547" s="6" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="C547" s="6" t="s">
         <v>11</v>
@@ -13926,7 +13950,7 @@
         <v>7</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C548" s="6" t="s">
         <v>11</v>
@@ -13947,7 +13971,7 @@
         <v>8</v>
       </c>
       <c r="B549" s="8" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="C549" s="6" t="s">
         <v>11</v>
@@ -13968,7 +13992,7 @@
         <v>9</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="C550" s="6" t="s">
         <v>11</v>
@@ -13989,7 +14013,7 @@
         <v>10</v>
       </c>
       <c r="B551" s="6" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C551" s="6" t="s">
         <v>11</v>
@@ -14010,7 +14034,7 @@
         <v>11</v>
       </c>
       <c r="B552" s="9" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="C552" s="6" t="s">
         <v>11</v>
@@ -14092,7 +14116,7 @@
       </c>
       <c r="B567" s="2"/>
       <c r="C567" s="3" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
@@ -14127,7 +14151,7 @@
         <v>1</v>
       </c>
       <c r="B569" s="6" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="C569" s="6" t="s">
         <v>11</v>
@@ -14148,7 +14172,7 @@
         <v>2</v>
       </c>
       <c r="B570" s="6" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="C570" s="6" t="s">
         <v>11</v>
@@ -14169,7 +14193,7 @@
         <v>3</v>
       </c>
       <c r="B571" s="6" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="C571" s="6" t="s">
         <v>11</v>
@@ -14190,7 +14214,7 @@
         <v>4</v>
       </c>
       <c r="B572" s="6" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="C572" s="6" t="s">
         <v>11</v>
@@ -14211,7 +14235,7 @@
         <v>5</v>
       </c>
       <c r="B573" s="6" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="C573" s="6" t="s">
         <v>11</v>
@@ -14232,7 +14256,7 @@
         <v>6</v>
       </c>
       <c r="B574" s="6" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="C574" s="6" t="s">
         <v>11</v>
@@ -14253,7 +14277,7 @@
         <v>7</v>
       </c>
       <c r="B575" s="8" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="C575" s="7" t="s">
         <v>11</v>
@@ -14274,7 +14298,7 @@
         <v>8</v>
       </c>
       <c r="B576" s="8" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C576" s="7" t="s">
         <v>11</v>
@@ -14295,7 +14319,7 @@
         <v>9</v>
       </c>
       <c r="B577" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="C577" s="7" t="s">
         <v>11</v>
@@ -14316,7 +14340,7 @@
         <v>10</v>
       </c>
       <c r="B578" s="6" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="C578" s="6" t="s">
         <v>11</v>
@@ -14337,7 +14361,7 @@
         <v>11</v>
       </c>
       <c r="B579" s="9" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C579" s="9" t="s">
         <v>11</v>
@@ -14358,7 +14382,7 @@
         <v>12</v>
       </c>
       <c r="B580" s="9" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="C580" s="9" t="s">
         <v>11</v>
@@ -14429,7 +14453,7 @@
       </c>
       <c r="B594" s="2"/>
       <c r="C594" s="3" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
@@ -14464,7 +14488,7 @@
         <v>1</v>
       </c>
       <c r="B596" s="6" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="C596" s="6" t="s">
         <v>11</v>
@@ -14494,7 +14518,7 @@
         <v>3</v>
       </c>
       <c r="B598" s="6" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="C598" s="6" t="s">
         <v>11</v>
@@ -14509,7 +14533,7 @@
         <v>4</v>
       </c>
       <c r="B599" s="6" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="C599" s="6" t="s">
         <v>11</v>
@@ -14524,7 +14548,7 @@
         <v>5</v>
       </c>
       <c r="B600" s="6" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C600" s="6" t="s">
         <v>11</v>
@@ -14539,7 +14563,7 @@
         <v>6</v>
       </c>
       <c r="B601" s="6" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="C601" s="6" t="s">
         <v>11</v>
@@ -14554,7 +14578,7 @@
         <v>7</v>
       </c>
       <c r="B602" s="8" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="C602" s="7" t="s">
         <v>11</v>
@@ -14569,7 +14593,7 @@
         <v>8</v>
       </c>
       <c r="B603" s="8" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="C603" s="7" t="s">
         <v>11</v>
@@ -14584,7 +14608,7 @@
         <v>9</v>
       </c>
       <c r="B604" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="C604" s="7" t="s">
         <v>11</v>
@@ -14599,7 +14623,7 @@
         <v>10</v>
       </c>
       <c r="B605" s="6" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="C605" s="6" t="s">
         <v>11</v>
@@ -14614,7 +14638,7 @@
         <v>11</v>
       </c>
       <c r="B606" s="9" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="C606" s="9" t="s">
         <v>11</v>
@@ -14629,7 +14653,7 @@
         <v>12</v>
       </c>
       <c r="B607" s="9" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C607" s="9" t="s">
         <v>11</v>
@@ -14644,7 +14668,7 @@
         <v>13</v>
       </c>
       <c r="B608" s="9" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="C608" s="9" t="s">
         <v>11</v>
@@ -14659,7 +14683,7 @@
         <v>14</v>
       </c>
       <c r="B609" s="9" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="C609" s="9" t="s">
         <v>11</v>
@@ -14689,7 +14713,7 @@
         <v>16</v>
       </c>
       <c r="B611" s="9" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="C611" s="9" t="s">
         <v>11</v>
@@ -14721,7 +14745,7 @@
       </c>
       <c r="B666" s="2"/>
       <c r="C666" s="3" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D666" s="3"/>
       <c r="E666" s="3"/>
@@ -14756,7 +14780,7 @@
         <v>1</v>
       </c>
       <c r="B668" s="6" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C668" s="6" t="s">
         <v>11</v>
@@ -14942,7 +14966,7 @@
       </c>
       <c r="B704" s="2"/>
       <c r="C704" s="3" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D704" s="3"/>
       <c r="E704" s="3"/>
@@ -14977,7 +15001,7 @@
         <v>1</v>
       </c>
       <c r="B706" s="6" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C706" s="6" t="s">
         <v>11</v>
@@ -15229,7 +15253,7 @@
   <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="A1:G19"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18112,7 +18136,7 @@
   <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="A1:G19"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20995,7 +21019,7 @@
   <dimension ref="A1:G294"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A255" activeCellId="1" sqref="A1:G19 A255"/>
+      <selection pane="topLeft" activeCell="A255" activeCellId="0" sqref="A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25099,7 +25123,7 @@
   <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A159" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C175" activeCellId="1" sqref="A1:G19 C175"/>
+      <selection pane="topLeft" activeCell="C175" activeCellId="0" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28047,7 +28071,7 @@
   <dimension ref="A1:G624"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A85" activeCellId="1" sqref="A1:G19 A85"/>
+      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35222,7 +35246,7 @@
   <dimension ref="A1:G624"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="1" sqref="A1:G19 J16"/>
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41832,8 +41856,8 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41925,7 +41949,9 @@
       <c r="A6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>329</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
       <c r="E6" s="7"/>
@@ -41936,7 +41962,9 @@
       <c r="A7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>330</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="7"/>
@@ -41947,7 +41975,9 @@
       <c r="A8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>331</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="5"/>
       <c r="E8" s="7"/>
@@ -41958,7 +41988,9 @@
       <c r="A9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>332</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
       <c r="E9" s="7"/>
@@ -41969,7 +42001,9 @@
       <c r="A10" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>333</v>
+      </c>
       <c r="C10" s="7"/>
       <c r="D10" s="5"/>
       <c r="E10" s="9"/>
@@ -41980,7 +42014,9 @@
       <c r="A11" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>334</v>
+      </c>
       <c r="C11" s="7"/>
       <c r="D11" s="5"/>
       <c r="E11" s="9"/>
@@ -41991,7 +42027,9 @@
       <c r="A12" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="C12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="9"/>
@@ -42002,7 +42040,9 @@
       <c r="A13" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>336</v>
+      </c>
       <c r="C13" s="6"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -42096,7 +42136,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A1:G19"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42124,11 +42164,11 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>

--- a/_worklist/工作计划2018.xlsx
+++ b/_worklist/工作计划2018.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="579">
   <si>
     <t xml:space="preserve">易欧思员工个人周工作计划表</t>
   </si>
@@ -1028,37 +1028,10 @@
     <t xml:space="preserve">计划周期：   月  日—   月   日</t>
   </si>
   <si>
-    <t xml:space="preserve">计划周期：   11月12日—11月18日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">胶条硅胶替换及计算价格处理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">线材订购单计算错误处理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover EF60节点修改</t>
-  </si>
-  <si>
-    <t xml:space="preserve">报告批量打印问题解决</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自定义模型修改</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新建吉喆帐号配置</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover节点扣盖型材修改</t>
-  </si>
-  <si>
-    <t xml:space="preserve">报告尺寸线问题解决</t>
-  </si>
-  <si>
-    <t xml:space="preserve">挡水板检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JoPPS用户添加数据库</t>
+    <t xml:space="preserve">计划周期：   11月19日—11月25日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover报告数据核对</t>
   </si>
   <si>
     <t xml:space="preserve">姓名：陈奕欣</t>
@@ -2065,7 +2038,7 @@
   <dimension ref="A1:G407"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C136" activeCellId="0" sqref="C136"/>
+      <selection pane="topLeft" activeCell="C136" activeCellId="1" sqref="A1:G19 C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6430,7 +6403,7 @@
   <dimension ref="A1:G721"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6458,11 +6431,11 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -6497,10 +6470,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="7"/>
@@ -6512,7 +6485,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>11</v>
@@ -6527,7 +6500,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>11</v>
@@ -6542,7 +6515,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>11</v>
@@ -6681,11 +6654,11 @@
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -6720,10 +6693,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
@@ -6735,7 +6708,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>11</v>
@@ -6907,11 +6880,11 @@
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -6946,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>11</v>
@@ -7133,11 +7106,11 @@
     </row>
     <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="3" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -7172,7 +7145,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>11</v>
@@ -7185,7 +7158,7 @@
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7193,7 +7166,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>11</v>
@@ -7214,7 +7187,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>11</v>
@@ -7235,7 +7208,7 @@
         <v>4</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>11</v>
@@ -7256,7 +7229,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>11</v>
@@ -7277,7 +7250,7 @@
         <v>6</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>11</v>
@@ -7298,7 +7271,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>11</v>
@@ -7319,7 +7292,7 @@
         <v>8</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>11</v>
@@ -7431,11 +7404,11 @@
     </row>
     <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -7470,7 +7443,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>11</v>
@@ -7489,7 +7462,7 @@
         <v>2</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>11</v>
@@ -7508,7 +7481,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>11</v>
@@ -7527,7 +7500,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>11</v>
@@ -7546,7 +7519,7 @@
         <v>5</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>11</v>
@@ -7565,7 +7538,7 @@
         <v>6</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>11</v>
@@ -7584,7 +7557,7 @@
         <v>7</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>11</v>
@@ -7603,7 +7576,7 @@
         <v>8</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>11</v>
@@ -7713,11 +7686,11 @@
     </row>
     <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="3" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -7752,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>11</v>
@@ -7767,7 +7740,7 @@
         <v>2</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>11</v>
@@ -7782,7 +7755,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>11</v>
@@ -7943,11 +7916,11 @@
     </row>
     <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -7982,7 +7955,7 @@
         <v>1</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="5"/>
@@ -7995,7 +7968,7 @@
         <v>2</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="5"/>
@@ -8008,7 +7981,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="5"/>
@@ -8167,11 +8140,11 @@
     </row>
     <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="3" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -8206,7 +8179,7 @@
         <v>1</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="5"/>
@@ -8219,7 +8192,7 @@
         <v>2</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="5"/>
@@ -8232,7 +8205,7 @@
         <v>3</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="5"/>
@@ -8245,7 +8218,7 @@
         <v>4</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="5"/>
@@ -8393,11 +8366,11 @@
     </row>
     <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="3" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -8432,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>11</v>
@@ -8619,7 +8592,7 @@
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="3" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -8654,7 +8627,7 @@
         <v>1</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>11</v>
@@ -8876,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>11</v>
@@ -8891,7 +8864,7 @@
         <v>2</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>11</v>
@@ -8906,7 +8879,7 @@
         <v>3</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>11</v>
@@ -8921,7 +8894,7 @@
         <v>4</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>11</v>
@@ -9075,7 +9048,7 @@
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="3" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -9110,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>11</v>
@@ -9129,7 +9102,7 @@
         <v>2</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>11</v>
@@ -9309,7 +9282,7 @@
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="3" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -9344,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>11</v>
@@ -9363,7 +9336,7 @@
         <v>2</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>11</v>
@@ -9543,7 +9516,7 @@
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="3" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -9578,7 +9551,7 @@
         <v>1</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>11</v>
@@ -9599,7 +9572,7 @@
         <v>2</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>11</v>
@@ -9620,7 +9593,7 @@
         <v>3</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>11</v>
@@ -9641,7 +9614,7 @@
         <v>4</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>11</v>
@@ -9801,7 +9774,7 @@
       </c>
       <c r="B281" s="2"/>
       <c r="C281" s="3" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -9836,7 +9809,7 @@
         <v>1</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>11</v>
@@ -9851,7 +9824,7 @@
         <v>2</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>11</v>
@@ -9866,7 +9839,7 @@
         <v>3</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>11</v>
@@ -9881,7 +9854,7 @@
         <v>4</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>11</v>
@@ -9911,7 +9884,7 @@
         <v>6</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>11</v>
@@ -10043,7 +10016,7 @@
       </c>
       <c r="B301" s="2"/>
       <c r="C301" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -10078,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>11</v>
@@ -10093,7 +10066,7 @@
         <v>2</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C304" s="0" t="s">
         <v>11</v>
@@ -10108,7 +10081,7 @@
         <v>3</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>11</v>
@@ -10123,7 +10096,7 @@
         <v>4</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>11</v>
@@ -10138,7 +10111,7 @@
         <v>5</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>11</v>
@@ -10153,7 +10126,7 @@
         <v>6</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>11</v>
@@ -10168,7 +10141,7 @@
         <v>7</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>11</v>
@@ -10183,7 +10156,7 @@
         <v>8</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>11</v>
@@ -10198,7 +10171,7 @@
         <v>9</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>11</v>
@@ -10213,7 +10186,7 @@
         <v>10</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>11</v>
@@ -10228,7 +10201,7 @@
         <v>11</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C313" s="9" t="s">
         <v>11</v>
@@ -10243,7 +10216,7 @@
         <v>12</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C314" s="9" t="s">
         <v>11</v>
@@ -10258,7 +10231,7 @@
         <v>13</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C315" s="9" t="s">
         <v>11</v>
@@ -10273,7 +10246,7 @@
         <v>14</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C316" s="9" t="s">
         <v>11</v>
@@ -10321,7 +10294,7 @@
       </c>
       <c r="B321" s="2"/>
       <c r="C321" s="3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -10356,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>11</v>
@@ -10371,7 +10344,7 @@
         <v>2</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>11</v>
@@ -10386,7 +10359,7 @@
         <v>3</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>11</v>
@@ -10401,7 +10374,7 @@
         <v>4</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>11</v>
@@ -10416,7 +10389,7 @@
         <v>5</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>11</v>
@@ -10559,7 +10532,7 @@
       </c>
       <c r="B341" s="2"/>
       <c r="C341" s="3" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -10594,7 +10567,7 @@
         <v>1</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>11</v>
@@ -10613,7 +10586,7 @@
         <v>2</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C344" s="6" t="s">
         <v>11</v>
@@ -10632,7 +10605,7 @@
         <v>3</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>11</v>
@@ -10651,7 +10624,7 @@
         <v>4</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C346" s="6" t="s">
         <v>11</v>
@@ -10670,7 +10643,7 @@
         <v>5</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C347" s="6" t="s">
         <v>11</v>
@@ -10708,7 +10681,7 @@
         <v>7</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>11</v>
@@ -10727,7 +10700,7 @@
         <v>8</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C350" s="6" t="s">
         <v>11</v>
@@ -10746,7 +10719,7 @@
         <v>9</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>11</v>
@@ -10765,7 +10738,7 @@
         <v>10</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C352" s="6" t="s">
         <v>11</v>
@@ -10784,7 +10757,7 @@
         <v>11</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C353" s="6" t="s">
         <v>11</v>
@@ -10803,7 +10776,7 @@
         <v>12</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C354" s="6" t="s">
         <v>11</v>
@@ -10822,7 +10795,7 @@
         <v>13</v>
       </c>
       <c r="B355" s="9" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C355" s="6" t="s">
         <v>11</v>
@@ -10841,7 +10814,7 @@
         <v>14</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C356" s="6" t="s">
         <v>11</v>
@@ -10860,7 +10833,7 @@
         <v>15</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C357" s="6" t="s">
         <v>11</v>
@@ -10879,7 +10852,7 @@
         <v>16</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C358" s="6" t="s">
         <v>11</v>
@@ -10917,7 +10890,7 @@
         <v>18</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C360" s="6" t="s">
         <v>11</v>
@@ -10954,7 +10927,7 @@
       </c>
       <c r="B364" s="2"/>
       <c r="C364" s="3" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -10989,7 +10962,7 @@
         <v>1</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>11</v>
@@ -11031,7 +11004,7 @@
         <v>3</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C368" s="6" t="s">
         <v>11</v>
@@ -11052,7 +11025,7 @@
         <v>4</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>11</v>
@@ -11073,7 +11046,7 @@
         <v>5</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C370" s="6" t="s">
         <v>11</v>
@@ -11094,7 +11067,7 @@
         <v>6</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C371" s="6" t="s">
         <v>11</v>
@@ -11115,7 +11088,7 @@
         <v>7</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C372" s="6" t="s">
         <v>11</v>
@@ -11136,7 +11109,7 @@
         <v>8</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C373" s="6" t="s">
         <v>11</v>
@@ -11157,7 +11130,7 @@
         <v>9</v>
       </c>
       <c r="B374" s="18" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>11</v>
@@ -11178,7 +11151,7 @@
         <v>10</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C375" s="6" t="s">
         <v>11</v>
@@ -11199,7 +11172,7 @@
         <v>11</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>11</v>
@@ -11220,7 +11193,7 @@
         <v>12</v>
       </c>
       <c r="B377" s="18" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>11</v>
@@ -11241,7 +11214,7 @@
         <v>13</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C378" s="6" t="s">
         <v>11</v>
@@ -11262,7 +11235,7 @@
         <v>14</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>11</v>
@@ -11283,7 +11256,7 @@
         <v>15</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>11</v>
@@ -11322,7 +11295,7 @@
       </c>
       <c r="B384" s="2"/>
       <c r="C384" s="3" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -11357,7 +11330,7 @@
         <v>1</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C386" s="6" t="s">
         <v>11</v>
@@ -11378,7 +11351,7 @@
         <v>2</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C387" s="6" t="s">
         <v>11</v>
@@ -11399,7 +11372,7 @@
         <v>3</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C388" s="6" t="s">
         <v>11</v>
@@ -11420,7 +11393,7 @@
         <v>4</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C389" s="6" t="s">
         <v>11</v>
@@ -11441,7 +11414,7 @@
         <v>5</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>11</v>
@@ -11462,7 +11435,7 @@
         <v>6</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C391" s="7" t="s">
         <v>11</v>
@@ -11483,7 +11456,7 @@
         <v>7</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C392" s="7" t="s">
         <v>11</v>
@@ -11504,7 +11477,7 @@
         <v>8</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C393" s="6" t="s">
         <v>11</v>
@@ -11525,7 +11498,7 @@
         <v>9</v>
       </c>
       <c r="B394" s="9" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C394" s="9" t="s">
         <v>11</v>
@@ -11546,7 +11519,7 @@
         <v>10</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C395" s="9" t="s">
         <v>11</v>
@@ -11567,7 +11540,7 @@
         <v>11</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C396" s="9" t="s">
         <v>11</v>
@@ -11588,7 +11561,7 @@
         <v>12</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C397" s="9" t="s">
         <v>11</v>
@@ -11609,7 +11582,7 @@
         <v>13</v>
       </c>
       <c r="B398" s="9" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C398" s="9" t="s">
         <v>11</v>
@@ -11630,7 +11603,7 @@
         <v>14</v>
       </c>
       <c r="B399" s="9" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C399" s="9" t="s">
         <v>11</v>
@@ -11651,7 +11624,7 @@
         <v>15</v>
       </c>
       <c r="B400" s="9" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C400" s="9" t="s">
         <v>11</v>
@@ -11672,7 +11645,7 @@
         <v>16</v>
       </c>
       <c r="B401" s="9" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C401" s="9" t="s">
         <v>11</v>
@@ -11693,7 +11666,7 @@
         <v>17</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C402" s="9" t="s">
         <v>11</v>
@@ -11714,7 +11687,7 @@
         <v>18</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C403" s="9" t="s">
         <v>11</v>
@@ -11735,7 +11708,7 @@
         <v>19</v>
       </c>
       <c r="B404" s="9" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C404" s="9" t="s">
         <v>11</v>
@@ -11773,7 +11746,7 @@
       </c>
       <c r="B408" s="2"/>
       <c r="C408" s="3" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -11808,7 +11781,7 @@
         <v>1</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>11</v>
@@ -11823,7 +11796,7 @@
         <v>2</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C411" s="6"/>
       <c r="D411" s="5"/>
@@ -11836,7 +11809,7 @@
         <v>3</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C412" s="6"/>
       <c r="D412" s="5"/>
@@ -11849,7 +11822,7 @@
         <v>4</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C413" s="6"/>
       <c r="D413" s="5"/>
@@ -11862,7 +11835,7 @@
         <v>5</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C414" s="6"/>
       <c r="D414" s="5"/>
@@ -12002,7 +11975,7 @@
       </c>
       <c r="B428" s="2"/>
       <c r="C428" s="3" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -12037,7 +12010,7 @@
         <v>1</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C430" s="6" t="s">
         <v>11</v>
@@ -12058,7 +12031,7 @@
         <v>2</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C431" s="6" t="s">
         <v>11</v>
@@ -12079,7 +12052,7 @@
         <v>3</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>11</v>
@@ -12100,7 +12073,7 @@
         <v>4</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C433" s="6" t="s">
         <v>11</v>
@@ -12121,7 +12094,7 @@
         <v>5</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C434" s="6" t="s">
         <v>11</v>
@@ -12142,7 +12115,7 @@
         <v>6</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>11</v>
@@ -12163,7 +12136,7 @@
         <v>7</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C436" s="7" t="s">
         <v>11</v>
@@ -12184,7 +12157,7 @@
         <v>8</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C437" s="7" t="s">
         <v>11</v>
@@ -12205,7 +12178,7 @@
         <v>9</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C438" s="7" t="s">
         <v>11</v>
@@ -12226,7 +12199,7 @@
         <v>10</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C439" s="6" t="s">
         <v>11</v>
@@ -12247,7 +12220,7 @@
         <v>11</v>
       </c>
       <c r="B440" s="9" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C440" s="9" t="s">
         <v>11</v>
@@ -12268,7 +12241,7 @@
         <v>12</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C441" s="9" t="s">
         <v>11</v>
@@ -12289,7 +12262,7 @@
         <v>13</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C442" s="9" t="s">
         <v>11</v>
@@ -12310,7 +12283,7 @@
         <v>14</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C443" s="9" t="s">
         <v>11</v>
@@ -12331,7 +12304,7 @@
         <v>15</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C444" s="9" t="s">
         <v>11</v>
@@ -12369,7 +12342,7 @@
       </c>
       <c r="B448" s="2"/>
       <c r="C448" s="3" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -12404,7 +12377,7 @@
         <v>1</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C450" s="6" t="s">
         <v>11</v>
@@ -12425,7 +12398,7 @@
         <v>2</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="C451" s="6" t="s">
         <v>11</v>
@@ -12446,7 +12419,7 @@
         <v>3</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C452" s="6" t="s">
         <v>11</v>
@@ -12467,7 +12440,7 @@
         <v>4</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C453" s="6" t="s">
         <v>11</v>
@@ -12488,7 +12461,7 @@
         <v>5</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C454" s="6" t="s">
         <v>11</v>
@@ -12509,7 +12482,7 @@
         <v>6</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C455" s="6" t="s">
         <v>11</v>
@@ -12530,7 +12503,7 @@
         <v>7</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C456" s="6" t="s">
         <v>11</v>
@@ -12551,7 +12524,7 @@
         <v>8</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C457" s="6" t="s">
         <v>11</v>
@@ -12572,7 +12545,7 @@
         <v>9</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>11</v>
@@ -12593,7 +12566,7 @@
         <v>10</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C459" s="6" t="s">
         <v>11</v>
@@ -12614,7 +12587,7 @@
         <v>11</v>
       </c>
       <c r="B460" s="9" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C460" s="6" t="s">
         <v>11</v>
@@ -12635,7 +12608,7 @@
         <v>12</v>
       </c>
       <c r="B461" s="9" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C461" s="6" t="s">
         <v>11</v>
@@ -12656,7 +12629,7 @@
         <v>13</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C462" s="6" t="s">
         <v>11</v>
@@ -12719,7 +12692,7 @@
         <v>16</v>
       </c>
       <c r="B465" s="9" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C465" s="6" t="s">
         <v>11</v>
@@ -12740,7 +12713,7 @@
         <v>17</v>
       </c>
       <c r="B466" s="9" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C466" s="6" t="s">
         <v>11</v>
@@ -12778,7 +12751,7 @@
       </c>
       <c r="B470" s="2"/>
       <c r="C470" s="3" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
@@ -12813,7 +12786,7 @@
         <v>1</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>11</v>
@@ -12834,7 +12807,7 @@
         <v>2</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C473" s="6" t="s">
         <v>11</v>
@@ -12855,7 +12828,7 @@
         <v>3</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>11</v>
@@ -12876,7 +12849,7 @@
         <v>4</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C475" s="6" t="s">
         <v>11</v>
@@ -12897,7 +12870,7 @@
         <v>5</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C476" s="6" t="s">
         <v>11</v>
@@ -12918,7 +12891,7 @@
         <v>6</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="C477" s="6" t="s">
         <v>11</v>
@@ -12939,7 +12912,7 @@
         <v>7</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="C478" s="6" t="s">
         <v>11</v>
@@ -12960,7 +12933,7 @@
         <v>8</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="C479" s="6" t="s">
         <v>11</v>
@@ -12981,7 +12954,7 @@
         <v>9</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C480" s="6" t="s">
         <v>11</v>
@@ -13002,7 +12975,7 @@
         <v>10</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="C481" s="6" t="s">
         <v>11</v>
@@ -13023,7 +12996,7 @@
         <v>11</v>
       </c>
       <c r="B482" s="9" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="C482" s="6" t="s">
         <v>11</v>
@@ -13044,7 +13017,7 @@
         <v>12</v>
       </c>
       <c r="B483" s="9" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C483" s="6" t="s">
         <v>11</v>
@@ -13065,7 +13038,7 @@
         <v>13</v>
       </c>
       <c r="B484" s="9" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C484" s="6" t="s">
         <v>11</v>
@@ -13086,7 +13059,7 @@
         <v>14</v>
       </c>
       <c r="B485" s="9" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="C485" s="6" t="s">
         <v>11</v>
@@ -13107,7 +13080,7 @@
         <v>15</v>
       </c>
       <c r="B486" s="9" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C486" s="6" t="s">
         <v>11</v>
@@ -13145,7 +13118,7 @@
       </c>
       <c r="B490" s="2"/>
       <c r="C490" s="3" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
@@ -13180,7 +13153,7 @@
         <v>1</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C492" s="6" t="s">
         <v>11</v>
@@ -13201,7 +13174,7 @@
         <v>2</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C493" s="6" t="s">
         <v>11</v>
@@ -13222,7 +13195,7 @@
         <v>3</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C494" s="6" t="s">
         <v>11</v>
@@ -13243,7 +13216,7 @@
         <v>4</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="C495" s="6" t="s">
         <v>11</v>
@@ -13264,7 +13237,7 @@
         <v>5</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C496" s="6" t="s">
         <v>11</v>
@@ -13306,7 +13279,7 @@
         <v>7</v>
       </c>
       <c r="B498" s="8" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C498" s="6" t="s">
         <v>11</v>
@@ -13327,7 +13300,7 @@
         <v>8</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C499" s="6" t="s">
         <v>11</v>
@@ -13348,7 +13321,7 @@
         <v>9</v>
       </c>
       <c r="B500" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C500" s="6" t="s">
         <v>11</v>
@@ -13369,7 +13342,7 @@
         <v>10</v>
       </c>
       <c r="B501" s="6" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C501" s="6" t="s">
         <v>11</v>
@@ -13390,7 +13363,7 @@
         <v>11</v>
       </c>
       <c r="B502" s="9" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C502" s="6" t="s">
         <v>11</v>
@@ -13411,7 +13384,7 @@
         <v>12</v>
       </c>
       <c r="B503" s="9" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C503" s="6" t="s">
         <v>11</v>
@@ -13432,7 +13405,7 @@
         <v>13</v>
       </c>
       <c r="B504" s="9" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C504" s="6" t="s">
         <v>11</v>
@@ -13453,7 +13426,7 @@
         <v>14</v>
       </c>
       <c r="B505" s="9" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C505" s="6" t="s">
         <v>11</v>
@@ -13512,7 +13485,7 @@
       </c>
       <c r="B514" s="2"/>
       <c r="C514" s="3" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
@@ -13547,7 +13520,7 @@
         <v>1</v>
       </c>
       <c r="B516" s="6" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C516" s="6" t="s">
         <v>11</v>
@@ -13568,7 +13541,7 @@
         <v>2</v>
       </c>
       <c r="B517" s="6" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C517" s="6" t="s">
         <v>11</v>
@@ -13589,7 +13562,7 @@
         <v>3</v>
       </c>
       <c r="B518" s="6" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C518" s="6" t="s">
         <v>11</v>
@@ -13610,7 +13583,7 @@
         <v>4</v>
       </c>
       <c r="B519" s="6" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C519" s="6" t="s">
         <v>11</v>
@@ -13631,7 +13604,7 @@
         <v>5</v>
       </c>
       <c r="B520" s="6" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C520" s="6" t="s">
         <v>11</v>
@@ -13652,7 +13625,7 @@
         <v>6</v>
       </c>
       <c r="B521" s="6" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="C521" s="6" t="s">
         <v>11</v>
@@ -13789,7 +13762,7 @@
       </c>
       <c r="B540" s="2"/>
       <c r="C540" s="3" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
@@ -13824,7 +13797,7 @@
         <v>1</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C542" s="6" t="s">
         <v>11</v>
@@ -13845,7 +13818,7 @@
         <v>2</v>
       </c>
       <c r="B543" s="6" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C543" s="6" t="s">
         <v>11</v>
@@ -13866,7 +13839,7 @@
         <v>3</v>
       </c>
       <c r="B544" s="6" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C544" s="6" t="s">
         <v>11</v>
@@ -13887,7 +13860,7 @@
         <v>4</v>
       </c>
       <c r="B545" s="6" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="C545" s="6" t="s">
         <v>11</v>
@@ -13908,7 +13881,7 @@
         <v>5</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="C546" s="6" t="s">
         <v>11</v>
@@ -13929,7 +13902,7 @@
         <v>6</v>
       </c>
       <c r="B547" s="6" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="C547" s="6" t="s">
         <v>11</v>
@@ -13950,7 +13923,7 @@
         <v>7</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C548" s="6" t="s">
         <v>11</v>
@@ -13971,7 +13944,7 @@
         <v>8</v>
       </c>
       <c r="B549" s="8" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="C549" s="6" t="s">
         <v>11</v>
@@ -13992,7 +13965,7 @@
         <v>9</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C550" s="6" t="s">
         <v>11</v>
@@ -14013,7 +13986,7 @@
         <v>10</v>
       </c>
       <c r="B551" s="6" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C551" s="6" t="s">
         <v>11</v>
@@ -14034,7 +14007,7 @@
         <v>11</v>
       </c>
       <c r="B552" s="9" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="C552" s="6" t="s">
         <v>11</v>
@@ -14116,7 +14089,7 @@
       </c>
       <c r="B567" s="2"/>
       <c r="C567" s="3" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
@@ -14151,7 +14124,7 @@
         <v>1</v>
       </c>
       <c r="B569" s="6" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C569" s="6" t="s">
         <v>11</v>
@@ -14172,7 +14145,7 @@
         <v>2</v>
       </c>
       <c r="B570" s="6" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C570" s="6" t="s">
         <v>11</v>
@@ -14193,7 +14166,7 @@
         <v>3</v>
       </c>
       <c r="B571" s="6" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C571" s="6" t="s">
         <v>11</v>
@@ -14214,7 +14187,7 @@
         <v>4</v>
       </c>
       <c r="B572" s="6" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C572" s="6" t="s">
         <v>11</v>
@@ -14235,7 +14208,7 @@
         <v>5</v>
       </c>
       <c r="B573" s="6" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C573" s="6" t="s">
         <v>11</v>
@@ -14256,7 +14229,7 @@
         <v>6</v>
       </c>
       <c r="B574" s="6" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C574" s="6" t="s">
         <v>11</v>
@@ -14277,7 +14250,7 @@
         <v>7</v>
       </c>
       <c r="B575" s="8" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="C575" s="7" t="s">
         <v>11</v>
@@ -14298,7 +14271,7 @@
         <v>8</v>
       </c>
       <c r="B576" s="8" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C576" s="7" t="s">
         <v>11</v>
@@ -14319,7 +14292,7 @@
         <v>9</v>
       </c>
       <c r="B577" s="7" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="C577" s="7" t="s">
         <v>11</v>
@@ -14340,7 +14313,7 @@
         <v>10</v>
       </c>
       <c r="B578" s="6" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C578" s="6" t="s">
         <v>11</v>
@@ -14361,7 +14334,7 @@
         <v>11</v>
       </c>
       <c r="B579" s="9" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C579" s="9" t="s">
         <v>11</v>
@@ -14382,7 +14355,7 @@
         <v>12</v>
       </c>
       <c r="B580" s="9" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="C580" s="9" t="s">
         <v>11</v>
@@ -14453,7 +14426,7 @@
       </c>
       <c r="B594" s="2"/>
       <c r="C594" s="3" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
@@ -14488,7 +14461,7 @@
         <v>1</v>
       </c>
       <c r="B596" s="6" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="C596" s="6" t="s">
         <v>11</v>
@@ -14518,7 +14491,7 @@
         <v>3</v>
       </c>
       <c r="B598" s="6" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="C598" s="6" t="s">
         <v>11</v>
@@ -14533,7 +14506,7 @@
         <v>4</v>
       </c>
       <c r="B599" s="6" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="C599" s="6" t="s">
         <v>11</v>
@@ -14548,7 +14521,7 @@
         <v>5</v>
       </c>
       <c r="B600" s="6" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C600" s="6" t="s">
         <v>11</v>
@@ -14563,7 +14536,7 @@
         <v>6</v>
       </c>
       <c r="B601" s="6" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="C601" s="6" t="s">
         <v>11</v>
@@ -14578,7 +14551,7 @@
         <v>7</v>
       </c>
       <c r="B602" s="8" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="C602" s="7" t="s">
         <v>11</v>
@@ -14593,7 +14566,7 @@
         <v>8</v>
       </c>
       <c r="B603" s="8" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C603" s="7" t="s">
         <v>11</v>
@@ -14608,7 +14581,7 @@
         <v>9</v>
       </c>
       <c r="B604" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C604" s="7" t="s">
         <v>11</v>
@@ -14623,7 +14596,7 @@
         <v>10</v>
       </c>
       <c r="B605" s="6" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="C605" s="6" t="s">
         <v>11</v>
@@ -14638,7 +14611,7 @@
         <v>11</v>
       </c>
       <c r="B606" s="9" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C606" s="9" t="s">
         <v>11</v>
@@ -14653,7 +14626,7 @@
         <v>12</v>
       </c>
       <c r="B607" s="9" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C607" s="9" t="s">
         <v>11</v>
@@ -14668,7 +14641,7 @@
         <v>13</v>
       </c>
       <c r="B608" s="9" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C608" s="9" t="s">
         <v>11</v>
@@ -14683,7 +14656,7 @@
         <v>14</v>
       </c>
       <c r="B609" s="9" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="C609" s="9" t="s">
         <v>11</v>
@@ -14713,7 +14686,7 @@
         <v>16</v>
       </c>
       <c r="B611" s="9" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="C611" s="9" t="s">
         <v>11</v>
@@ -14745,7 +14718,7 @@
       </c>
       <c r="B666" s="2"/>
       <c r="C666" s="3" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D666" s="3"/>
       <c r="E666" s="3"/>
@@ -14780,7 +14753,7 @@
         <v>1</v>
       </c>
       <c r="B668" s="6" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C668" s="6" t="s">
         <v>11</v>
@@ -14966,7 +14939,7 @@
       </c>
       <c r="B704" s="2"/>
       <c r="C704" s="3" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D704" s="3"/>
       <c r="E704" s="3"/>
@@ -15001,7 +14974,7 @@
         <v>1</v>
       </c>
       <c r="B706" s="6" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C706" s="6" t="s">
         <v>11</v>
@@ -15253,7 +15226,7 @@
   <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18136,7 +18109,7 @@
   <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21019,7 +20992,7 @@
   <dimension ref="A1:G294"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A255" activeCellId="0" sqref="A255"/>
+      <selection pane="topLeft" activeCell="A255" activeCellId="1" sqref="A1:G19 A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25123,7 +25096,7 @@
   <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A159" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C175" activeCellId="0" sqref="C175"/>
+      <selection pane="topLeft" activeCell="C175" activeCellId="1" sqref="A1:G19 C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28071,7 +28044,7 @@
   <dimension ref="A1:G624"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
+      <selection pane="topLeft" activeCell="A85" activeCellId="1" sqref="A1:G19 A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35246,7 +35219,7 @@
   <dimension ref="A1:G624"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+      <selection pane="topLeft" activeCell="J16" activeCellId="1" sqref="A1:G19 J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41857,7 +41830,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41936,9 +41909,7 @@
       <c r="A5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>328</v>
-      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="7"/>
@@ -41949,9 +41920,7 @@
       <c r="A6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>329</v>
-      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
       <c r="E6" s="7"/>
@@ -41962,9 +41931,7 @@
       <c r="A7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>330</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="7"/>
@@ -41975,9 +41942,7 @@
       <c r="A8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>331</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="5"/>
       <c r="E8" s="7"/>
@@ -41988,9 +41953,7 @@
       <c r="A9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>332</v>
-      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
       <c r="E9" s="7"/>
@@ -42001,9 +41964,7 @@
       <c r="A10" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>333</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="7"/>
       <c r="D10" s="5"/>
       <c r="E10" s="9"/>
@@ -42014,9 +41975,7 @@
       <c r="A11" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>334</v>
-      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="7"/>
       <c r="D11" s="5"/>
       <c r="E11" s="9"/>
@@ -42027,9 +41986,7 @@
       <c r="A12" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>335</v>
-      </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="9"/>
@@ -42040,9 +41997,7 @@
       <c r="A13" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>336</v>
-      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -42136,7 +42091,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42164,11 +42119,11 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>

--- a/_worklist/工作计划2018.xlsx
+++ b/_worklist/工作计划2018.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="581">
   <si>
     <t xml:space="preserve">易欧思员工个人周工作计划表</t>
   </si>
@@ -1028,10 +1028,16 @@
     <t xml:space="preserve">计划周期：   月  日—   月   日</t>
   </si>
   <si>
-    <t xml:space="preserve">计划周期：   11月19日—11月25日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover报告数据核对</t>
+    <t xml:space="preserve">计划周期：   11月26日—12月2日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">玻璃“无玻璃”项问题处理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover核对计算</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加密软件服务器崩溃死机问题处理</t>
   </si>
   <si>
     <t xml:space="preserve">姓名：陈奕欣</t>
@@ -2038,7 +2044,7 @@
   <dimension ref="A1:G407"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C136" activeCellId="1" sqref="A1:G19 C136"/>
+      <selection pane="topLeft" activeCell="C136" activeCellId="0" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6403,7 +6409,7 @@
   <dimension ref="A1:G721"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="A1:G19"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6431,11 +6437,11 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -6470,10 +6476,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="7"/>
@@ -6485,7 +6491,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>11</v>
@@ -6500,7 +6506,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>11</v>
@@ -6515,7 +6521,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>11</v>
@@ -6654,11 +6660,11 @@
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -6693,10 +6699,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
@@ -6708,7 +6714,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>11</v>
@@ -6880,11 +6886,11 @@
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -6919,7 +6925,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>11</v>
@@ -7106,11 +7112,11 @@
     </row>
     <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -7145,7 +7151,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>11</v>
@@ -7158,7 +7164,7 @@
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7166,7 +7172,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>11</v>
@@ -7187,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>11</v>
@@ -7208,7 +7214,7 @@
         <v>4</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>11</v>
@@ -7229,7 +7235,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>11</v>
@@ -7250,7 +7256,7 @@
         <v>6</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>11</v>
@@ -7271,7 +7277,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>11</v>
@@ -7292,7 +7298,7 @@
         <v>8</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>11</v>
@@ -7404,11 +7410,11 @@
     </row>
     <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -7443,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>11</v>
@@ -7462,7 +7468,7 @@
         <v>2</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>11</v>
@@ -7481,7 +7487,7 @@
         <v>3</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>11</v>
@@ -7500,7 +7506,7 @@
         <v>4</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>11</v>
@@ -7519,7 +7525,7 @@
         <v>5</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>11</v>
@@ -7538,7 +7544,7 @@
         <v>6</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>11</v>
@@ -7557,7 +7563,7 @@
         <v>7</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>11</v>
@@ -7576,7 +7582,7 @@
         <v>8</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>11</v>
@@ -7686,11 +7692,11 @@
     </row>
     <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -7725,7 +7731,7 @@
         <v>1</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>11</v>
@@ -7740,7 +7746,7 @@
         <v>2</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>11</v>
@@ -7755,7 +7761,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>11</v>
@@ -7916,11 +7922,11 @@
     </row>
     <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -7955,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="5"/>
@@ -7968,7 +7974,7 @@
         <v>2</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="5"/>
@@ -7981,7 +7987,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="5"/>
@@ -8140,11 +8146,11 @@
     </row>
     <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -8179,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="5"/>
@@ -8192,7 +8198,7 @@
         <v>2</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="5"/>
@@ -8205,7 +8211,7 @@
         <v>3</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="5"/>
@@ -8218,7 +8224,7 @@
         <v>4</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="5"/>
@@ -8366,11 +8372,11 @@
     </row>
     <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -8405,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>11</v>
@@ -8592,7 +8598,7 @@
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -8627,7 +8633,7 @@
         <v>1</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>11</v>
@@ -8849,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>11</v>
@@ -8864,7 +8870,7 @@
         <v>2</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>11</v>
@@ -8879,7 +8885,7 @@
         <v>3</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>11</v>
@@ -8894,7 +8900,7 @@
         <v>4</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>11</v>
@@ -9048,7 +9054,7 @@
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -9083,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>11</v>
@@ -9102,7 +9108,7 @@
         <v>2</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>11</v>
@@ -9282,7 +9288,7 @@
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -9317,7 +9323,7 @@
         <v>1</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>11</v>
@@ -9336,7 +9342,7 @@
         <v>2</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>11</v>
@@ -9516,7 +9522,7 @@
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -9551,7 +9557,7 @@
         <v>1</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>11</v>
@@ -9572,7 +9578,7 @@
         <v>2</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>11</v>
@@ -9593,7 +9599,7 @@
         <v>3</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>11</v>
@@ -9614,7 +9620,7 @@
         <v>4</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>11</v>
@@ -9774,7 +9780,7 @@
       </c>
       <c r="B281" s="2"/>
       <c r="C281" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -9809,7 +9815,7 @@
         <v>1</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>11</v>
@@ -9824,7 +9830,7 @@
         <v>2</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>11</v>
@@ -9839,7 +9845,7 @@
         <v>3</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>11</v>
@@ -9854,7 +9860,7 @@
         <v>4</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>11</v>
@@ -9884,7 +9890,7 @@
         <v>6</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>11</v>
@@ -10016,7 +10022,7 @@
       </c>
       <c r="B301" s="2"/>
       <c r="C301" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -10051,7 +10057,7 @@
         <v>1</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>11</v>
@@ -10066,7 +10072,7 @@
         <v>2</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C304" s="0" t="s">
         <v>11</v>
@@ -10081,7 +10087,7 @@
         <v>3</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>11</v>
@@ -10096,7 +10102,7 @@
         <v>4</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>11</v>
@@ -10111,7 +10117,7 @@
         <v>5</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>11</v>
@@ -10126,7 +10132,7 @@
         <v>6</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>11</v>
@@ -10141,7 +10147,7 @@
         <v>7</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>11</v>
@@ -10156,7 +10162,7 @@
         <v>8</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>11</v>
@@ -10171,7 +10177,7 @@
         <v>9</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>11</v>
@@ -10186,7 +10192,7 @@
         <v>10</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>11</v>
@@ -10201,7 +10207,7 @@
         <v>11</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C313" s="9" t="s">
         <v>11</v>
@@ -10216,7 +10222,7 @@
         <v>12</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C314" s="9" t="s">
         <v>11</v>
@@ -10231,7 +10237,7 @@
         <v>13</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C315" s="9" t="s">
         <v>11</v>
@@ -10246,7 +10252,7 @@
         <v>14</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C316" s="9" t="s">
         <v>11</v>
@@ -10294,7 +10300,7 @@
       </c>
       <c r="B321" s="2"/>
       <c r="C321" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -10329,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>11</v>
@@ -10344,7 +10350,7 @@
         <v>2</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>11</v>
@@ -10359,7 +10365,7 @@
         <v>3</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>11</v>
@@ -10374,7 +10380,7 @@
         <v>4</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>11</v>
@@ -10389,7 +10395,7 @@
         <v>5</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>11</v>
@@ -10532,7 +10538,7 @@
       </c>
       <c r="B341" s="2"/>
       <c r="C341" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -10567,7 +10573,7 @@
         <v>1</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>11</v>
@@ -10586,7 +10592,7 @@
         <v>2</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C344" s="6" t="s">
         <v>11</v>
@@ -10605,7 +10611,7 @@
         <v>3</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>11</v>
@@ -10624,7 +10630,7 @@
         <v>4</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C346" s="6" t="s">
         <v>11</v>
@@ -10643,7 +10649,7 @@
         <v>5</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C347" s="6" t="s">
         <v>11</v>
@@ -10681,7 +10687,7 @@
         <v>7</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>11</v>
@@ -10700,7 +10706,7 @@
         <v>8</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C350" s="6" t="s">
         <v>11</v>
@@ -10719,7 +10725,7 @@
         <v>9</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>11</v>
@@ -10738,7 +10744,7 @@
         <v>10</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C352" s="6" t="s">
         <v>11</v>
@@ -10757,7 +10763,7 @@
         <v>11</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C353" s="6" t="s">
         <v>11</v>
@@ -10776,7 +10782,7 @@
         <v>12</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C354" s="6" t="s">
         <v>11</v>
@@ -10795,7 +10801,7 @@
         <v>13</v>
       </c>
       <c r="B355" s="9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C355" s="6" t="s">
         <v>11</v>
@@ -10814,7 +10820,7 @@
         <v>14</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C356" s="6" t="s">
         <v>11</v>
@@ -10833,7 +10839,7 @@
         <v>15</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C357" s="6" t="s">
         <v>11</v>
@@ -10852,7 +10858,7 @@
         <v>16</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C358" s="6" t="s">
         <v>11</v>
@@ -10890,7 +10896,7 @@
         <v>18</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C360" s="6" t="s">
         <v>11</v>
@@ -10927,7 +10933,7 @@
       </c>
       <c r="B364" s="2"/>
       <c r="C364" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -10962,7 +10968,7 @@
         <v>1</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>11</v>
@@ -11004,7 +11010,7 @@
         <v>3</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C368" s="6" t="s">
         <v>11</v>
@@ -11025,7 +11031,7 @@
         <v>4</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>11</v>
@@ -11046,7 +11052,7 @@
         <v>5</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C370" s="6" t="s">
         <v>11</v>
@@ -11067,7 +11073,7 @@
         <v>6</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C371" s="6" t="s">
         <v>11</v>
@@ -11088,7 +11094,7 @@
         <v>7</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C372" s="6" t="s">
         <v>11</v>
@@ -11109,7 +11115,7 @@
         <v>8</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C373" s="6" t="s">
         <v>11</v>
@@ -11130,7 +11136,7 @@
         <v>9</v>
       </c>
       <c r="B374" s="18" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>11</v>
@@ -11151,7 +11157,7 @@
         <v>10</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C375" s="6" t="s">
         <v>11</v>
@@ -11172,7 +11178,7 @@
         <v>11</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>11</v>
@@ -11193,7 +11199,7 @@
         <v>12</v>
       </c>
       <c r="B377" s="18" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>11</v>
@@ -11214,7 +11220,7 @@
         <v>13</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C378" s="6" t="s">
         <v>11</v>
@@ -11235,7 +11241,7 @@
         <v>14</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>11</v>
@@ -11256,7 +11262,7 @@
         <v>15</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>11</v>
@@ -11295,7 +11301,7 @@
       </c>
       <c r="B384" s="2"/>
       <c r="C384" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -11330,7 +11336,7 @@
         <v>1</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C386" s="6" t="s">
         <v>11</v>
@@ -11351,7 +11357,7 @@
         <v>2</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C387" s="6" t="s">
         <v>11</v>
@@ -11372,7 +11378,7 @@
         <v>3</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C388" s="6" t="s">
         <v>11</v>
@@ -11393,7 +11399,7 @@
         <v>4</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C389" s="6" t="s">
         <v>11</v>
@@ -11414,7 +11420,7 @@
         <v>5</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>11</v>
@@ -11435,7 +11441,7 @@
         <v>6</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C391" s="7" t="s">
         <v>11</v>
@@ -11456,7 +11462,7 @@
         <v>7</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C392" s="7" t="s">
         <v>11</v>
@@ -11477,7 +11483,7 @@
         <v>8</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C393" s="6" t="s">
         <v>11</v>
@@ -11498,7 +11504,7 @@
         <v>9</v>
       </c>
       <c r="B394" s="9" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C394" s="9" t="s">
         <v>11</v>
@@ -11519,7 +11525,7 @@
         <v>10</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C395" s="9" t="s">
         <v>11</v>
@@ -11540,7 +11546,7 @@
         <v>11</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C396" s="9" t="s">
         <v>11</v>
@@ -11561,7 +11567,7 @@
         <v>12</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C397" s="9" t="s">
         <v>11</v>
@@ -11582,7 +11588,7 @@
         <v>13</v>
       </c>
       <c r="B398" s="9" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C398" s="9" t="s">
         <v>11</v>
@@ -11603,7 +11609,7 @@
         <v>14</v>
       </c>
       <c r="B399" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C399" s="9" t="s">
         <v>11</v>
@@ -11624,7 +11630,7 @@
         <v>15</v>
       </c>
       <c r="B400" s="9" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C400" s="9" t="s">
         <v>11</v>
@@ -11645,7 +11651,7 @@
         <v>16</v>
       </c>
       <c r="B401" s="9" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C401" s="9" t="s">
         <v>11</v>
@@ -11666,7 +11672,7 @@
         <v>17</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C402" s="9" t="s">
         <v>11</v>
@@ -11687,7 +11693,7 @@
         <v>18</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C403" s="9" t="s">
         <v>11</v>
@@ -11708,7 +11714,7 @@
         <v>19</v>
       </c>
       <c r="B404" s="9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C404" s="9" t="s">
         <v>11</v>
@@ -11746,7 +11752,7 @@
       </c>
       <c r="B408" s="2"/>
       <c r="C408" s="3" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -11781,7 +11787,7 @@
         <v>1</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>11</v>
@@ -11796,7 +11802,7 @@
         <v>2</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C411" s="6"/>
       <c r="D411" s="5"/>
@@ -11809,7 +11815,7 @@
         <v>3</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C412" s="6"/>
       <c r="D412" s="5"/>
@@ -11822,7 +11828,7 @@
         <v>4</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C413" s="6"/>
       <c r="D413" s="5"/>
@@ -11835,7 +11841,7 @@
         <v>5</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C414" s="6"/>
       <c r="D414" s="5"/>
@@ -11975,7 +11981,7 @@
       </c>
       <c r="B428" s="2"/>
       <c r="C428" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -12010,7 +12016,7 @@
         <v>1</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C430" s="6" t="s">
         <v>11</v>
@@ -12031,7 +12037,7 @@
         <v>2</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C431" s="6" t="s">
         <v>11</v>
@@ -12052,7 +12058,7 @@
         <v>3</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>11</v>
@@ -12073,7 +12079,7 @@
         <v>4</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C433" s="6" t="s">
         <v>11</v>
@@ -12094,7 +12100,7 @@
         <v>5</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C434" s="6" t="s">
         <v>11</v>
@@ -12115,7 +12121,7 @@
         <v>6</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>11</v>
@@ -12136,7 +12142,7 @@
         <v>7</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C436" s="7" t="s">
         <v>11</v>
@@ -12157,7 +12163,7 @@
         <v>8</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C437" s="7" t="s">
         <v>11</v>
@@ -12178,7 +12184,7 @@
         <v>9</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C438" s="7" t="s">
         <v>11</v>
@@ -12199,7 +12205,7 @@
         <v>10</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C439" s="6" t="s">
         <v>11</v>
@@ -12220,7 +12226,7 @@
         <v>11</v>
       </c>
       <c r="B440" s="9" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C440" s="9" t="s">
         <v>11</v>
@@ -12241,7 +12247,7 @@
         <v>12</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C441" s="9" t="s">
         <v>11</v>
@@ -12262,7 +12268,7 @@
         <v>13</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C442" s="9" t="s">
         <v>11</v>
@@ -12283,7 +12289,7 @@
         <v>14</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C443" s="9" t="s">
         <v>11</v>
@@ -12304,7 +12310,7 @@
         <v>15</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C444" s="9" t="s">
         <v>11</v>
@@ -12342,7 +12348,7 @@
       </c>
       <c r="B448" s="2"/>
       <c r="C448" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -12377,7 +12383,7 @@
         <v>1</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C450" s="6" t="s">
         <v>11</v>
@@ -12398,7 +12404,7 @@
         <v>2</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C451" s="6" t="s">
         <v>11</v>
@@ -12419,7 +12425,7 @@
         <v>3</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C452" s="6" t="s">
         <v>11</v>
@@ -12440,7 +12446,7 @@
         <v>4</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C453" s="6" t="s">
         <v>11</v>
@@ -12461,7 +12467,7 @@
         <v>5</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C454" s="6" t="s">
         <v>11</v>
@@ -12482,7 +12488,7 @@
         <v>6</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C455" s="6" t="s">
         <v>11</v>
@@ -12503,7 +12509,7 @@
         <v>7</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C456" s="6" t="s">
         <v>11</v>
@@ -12524,7 +12530,7 @@
         <v>8</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C457" s="6" t="s">
         <v>11</v>
@@ -12545,7 +12551,7 @@
         <v>9</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>11</v>
@@ -12566,7 +12572,7 @@
         <v>10</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C459" s="6" t="s">
         <v>11</v>
@@ -12587,7 +12593,7 @@
         <v>11</v>
       </c>
       <c r="B460" s="9" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C460" s="6" t="s">
         <v>11</v>
@@ -12608,7 +12614,7 @@
         <v>12</v>
       </c>
       <c r="B461" s="9" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C461" s="6" t="s">
         <v>11</v>
@@ -12629,7 +12635,7 @@
         <v>13</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C462" s="6" t="s">
         <v>11</v>
@@ -12692,7 +12698,7 @@
         <v>16</v>
       </c>
       <c r="B465" s="9" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C465" s="6" t="s">
         <v>11</v>
@@ -12713,7 +12719,7 @@
         <v>17</v>
       </c>
       <c r="B466" s="9" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C466" s="6" t="s">
         <v>11</v>
@@ -12751,7 +12757,7 @@
       </c>
       <c r="B470" s="2"/>
       <c r="C470" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
@@ -12786,7 +12792,7 @@
         <v>1</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>11</v>
@@ -12807,7 +12813,7 @@
         <v>2</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C473" s="6" t="s">
         <v>11</v>
@@ -12828,7 +12834,7 @@
         <v>3</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>11</v>
@@ -12849,7 +12855,7 @@
         <v>4</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C475" s="6" t="s">
         <v>11</v>
@@ -12870,7 +12876,7 @@
         <v>5</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C476" s="6" t="s">
         <v>11</v>
@@ -12891,7 +12897,7 @@
         <v>6</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C477" s="6" t="s">
         <v>11</v>
@@ -12912,7 +12918,7 @@
         <v>7</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C478" s="6" t="s">
         <v>11</v>
@@ -12933,7 +12939,7 @@
         <v>8</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C479" s="6" t="s">
         <v>11</v>
@@ -12954,7 +12960,7 @@
         <v>9</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C480" s="6" t="s">
         <v>11</v>
@@ -12975,7 +12981,7 @@
         <v>10</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C481" s="6" t="s">
         <v>11</v>
@@ -12996,7 +13002,7 @@
         <v>11</v>
       </c>
       <c r="B482" s="9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C482" s="6" t="s">
         <v>11</v>
@@ -13017,7 +13023,7 @@
         <v>12</v>
       </c>
       <c r="B483" s="9" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C483" s="6" t="s">
         <v>11</v>
@@ -13038,7 +13044,7 @@
         <v>13</v>
       </c>
       <c r="B484" s="9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C484" s="6" t="s">
         <v>11</v>
@@ -13059,7 +13065,7 @@
         <v>14</v>
       </c>
       <c r="B485" s="9" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C485" s="6" t="s">
         <v>11</v>
@@ -13080,7 +13086,7 @@
         <v>15</v>
       </c>
       <c r="B486" s="9" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C486" s="6" t="s">
         <v>11</v>
@@ -13118,7 +13124,7 @@
       </c>
       <c r="B490" s="2"/>
       <c r="C490" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
@@ -13153,7 +13159,7 @@
         <v>1</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C492" s="6" t="s">
         <v>11</v>
@@ -13174,7 +13180,7 @@
         <v>2</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C493" s="6" t="s">
         <v>11</v>
@@ -13195,7 +13201,7 @@
         <v>3</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C494" s="6" t="s">
         <v>11</v>
@@ -13216,7 +13222,7 @@
         <v>4</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C495" s="6" t="s">
         <v>11</v>
@@ -13237,7 +13243,7 @@
         <v>5</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C496" s="6" t="s">
         <v>11</v>
@@ -13279,7 +13285,7 @@
         <v>7</v>
       </c>
       <c r="B498" s="8" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C498" s="6" t="s">
         <v>11</v>
@@ -13300,7 +13306,7 @@
         <v>8</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C499" s="6" t="s">
         <v>11</v>
@@ -13321,7 +13327,7 @@
         <v>9</v>
       </c>
       <c r="B500" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C500" s="6" t="s">
         <v>11</v>
@@ -13342,7 +13348,7 @@
         <v>10</v>
       </c>
       <c r="B501" s="6" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C501" s="6" t="s">
         <v>11</v>
@@ -13363,7 +13369,7 @@
         <v>11</v>
       </c>
       <c r="B502" s="9" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C502" s="6" t="s">
         <v>11</v>
@@ -13384,7 +13390,7 @@
         <v>12</v>
       </c>
       <c r="B503" s="9" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C503" s="6" t="s">
         <v>11</v>
@@ -13405,7 +13411,7 @@
         <v>13</v>
       </c>
       <c r="B504" s="9" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C504" s="6" t="s">
         <v>11</v>
@@ -13426,7 +13432,7 @@
         <v>14</v>
       </c>
       <c r="B505" s="9" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C505" s="6" t="s">
         <v>11</v>
@@ -13485,7 +13491,7 @@
       </c>
       <c r="B514" s="2"/>
       <c r="C514" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
@@ -13520,7 +13526,7 @@
         <v>1</v>
       </c>
       <c r="B516" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C516" s="6" t="s">
         <v>11</v>
@@ -13541,7 +13547,7 @@
         <v>2</v>
       </c>
       <c r="B517" s="6" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C517" s="6" t="s">
         <v>11</v>
@@ -13562,7 +13568,7 @@
         <v>3</v>
       </c>
       <c r="B518" s="6" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C518" s="6" t="s">
         <v>11</v>
@@ -13583,7 +13589,7 @@
         <v>4</v>
       </c>
       <c r="B519" s="6" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C519" s="6" t="s">
         <v>11</v>
@@ -13604,7 +13610,7 @@
         <v>5</v>
       </c>
       <c r="B520" s="6" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C520" s="6" t="s">
         <v>11</v>
@@ -13625,7 +13631,7 @@
         <v>6</v>
       </c>
       <c r="B521" s="6" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C521" s="6" t="s">
         <v>11</v>
@@ -13762,7 +13768,7 @@
       </c>
       <c r="B540" s="2"/>
       <c r="C540" s="3" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
@@ -13797,7 +13803,7 @@
         <v>1</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C542" s="6" t="s">
         <v>11</v>
@@ -13818,7 +13824,7 @@
         <v>2</v>
       </c>
       <c r="B543" s="6" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C543" s="6" t="s">
         <v>11</v>
@@ -13839,7 +13845,7 @@
         <v>3</v>
       </c>
       <c r="B544" s="6" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C544" s="6" t="s">
         <v>11</v>
@@ -13860,7 +13866,7 @@
         <v>4</v>
       </c>
       <c r="B545" s="6" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C545" s="6" t="s">
         <v>11</v>
@@ -13881,7 +13887,7 @@
         <v>5</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C546" s="6" t="s">
         <v>11</v>
@@ -13902,7 +13908,7 @@
         <v>6</v>
       </c>
       <c r="B547" s="6" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C547" s="6" t="s">
         <v>11</v>
@@ -13923,7 +13929,7 @@
         <v>7</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C548" s="6" t="s">
         <v>11</v>
@@ -13944,7 +13950,7 @@
         <v>8</v>
       </c>
       <c r="B549" s="8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C549" s="6" t="s">
         <v>11</v>
@@ -13965,7 +13971,7 @@
         <v>9</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C550" s="6" t="s">
         <v>11</v>
@@ -13986,7 +13992,7 @@
         <v>10</v>
       </c>
       <c r="B551" s="6" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C551" s="6" t="s">
         <v>11</v>
@@ -14007,7 +14013,7 @@
         <v>11</v>
       </c>
       <c r="B552" s="9" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C552" s="6" t="s">
         <v>11</v>
@@ -14089,7 +14095,7 @@
       </c>
       <c r="B567" s="2"/>
       <c r="C567" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
@@ -14124,7 +14130,7 @@
         <v>1</v>
       </c>
       <c r="B569" s="6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C569" s="6" t="s">
         <v>11</v>
@@ -14145,7 +14151,7 @@
         <v>2</v>
       </c>
       <c r="B570" s="6" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C570" s="6" t="s">
         <v>11</v>
@@ -14166,7 +14172,7 @@
         <v>3</v>
       </c>
       <c r="B571" s="6" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C571" s="6" t="s">
         <v>11</v>
@@ -14187,7 +14193,7 @@
         <v>4</v>
       </c>
       <c r="B572" s="6" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C572" s="6" t="s">
         <v>11</v>
@@ -14208,7 +14214,7 @@
         <v>5</v>
       </c>
       <c r="B573" s="6" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C573" s="6" t="s">
         <v>11</v>
@@ -14229,7 +14235,7 @@
         <v>6</v>
       </c>
       <c r="B574" s="6" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C574" s="6" t="s">
         <v>11</v>
@@ -14250,7 +14256,7 @@
         <v>7</v>
       </c>
       <c r="B575" s="8" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C575" s="7" t="s">
         <v>11</v>
@@ -14271,7 +14277,7 @@
         <v>8</v>
       </c>
       <c r="B576" s="8" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C576" s="7" t="s">
         <v>11</v>
@@ -14292,7 +14298,7 @@
         <v>9</v>
       </c>
       <c r="B577" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C577" s="7" t="s">
         <v>11</v>
@@ -14313,7 +14319,7 @@
         <v>10</v>
       </c>
       <c r="B578" s="6" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C578" s="6" t="s">
         <v>11</v>
@@ -14334,7 +14340,7 @@
         <v>11</v>
       </c>
       <c r="B579" s="9" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C579" s="9" t="s">
         <v>11</v>
@@ -14355,7 +14361,7 @@
         <v>12</v>
       </c>
       <c r="B580" s="9" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C580" s="9" t="s">
         <v>11</v>
@@ -14426,7 +14432,7 @@
       </c>
       <c r="B594" s="2"/>
       <c r="C594" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
@@ -14461,7 +14467,7 @@
         <v>1</v>
       </c>
       <c r="B596" s="6" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C596" s="6" t="s">
         <v>11</v>
@@ -14491,7 +14497,7 @@
         <v>3</v>
       </c>
       <c r="B598" s="6" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C598" s="6" t="s">
         <v>11</v>
@@ -14506,7 +14512,7 @@
         <v>4</v>
       </c>
       <c r="B599" s="6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C599" s="6" t="s">
         <v>11</v>
@@ -14521,7 +14527,7 @@
         <v>5</v>
       </c>
       <c r="B600" s="6" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C600" s="6" t="s">
         <v>11</v>
@@ -14536,7 +14542,7 @@
         <v>6</v>
       </c>
       <c r="B601" s="6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C601" s="6" t="s">
         <v>11</v>
@@ -14551,7 +14557,7 @@
         <v>7</v>
       </c>
       <c r="B602" s="8" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C602" s="7" t="s">
         <v>11</v>
@@ -14566,7 +14572,7 @@
         <v>8</v>
       </c>
       <c r="B603" s="8" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C603" s="7" t="s">
         <v>11</v>
@@ -14581,7 +14587,7 @@
         <v>9</v>
       </c>
       <c r="B604" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C604" s="7" t="s">
         <v>11</v>
@@ -14596,7 +14602,7 @@
         <v>10</v>
       </c>
       <c r="B605" s="6" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C605" s="6" t="s">
         <v>11</v>
@@ -14611,7 +14617,7 @@
         <v>11</v>
       </c>
       <c r="B606" s="9" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C606" s="9" t="s">
         <v>11</v>
@@ -14626,7 +14632,7 @@
         <v>12</v>
       </c>
       <c r="B607" s="9" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C607" s="9" t="s">
         <v>11</v>
@@ -14641,7 +14647,7 @@
         <v>13</v>
       </c>
       <c r="B608" s="9" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C608" s="9" t="s">
         <v>11</v>
@@ -14656,7 +14662,7 @@
         <v>14</v>
       </c>
       <c r="B609" s="9" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C609" s="9" t="s">
         <v>11</v>
@@ -14686,7 +14692,7 @@
         <v>16</v>
       </c>
       <c r="B611" s="9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C611" s="9" t="s">
         <v>11</v>
@@ -14718,7 +14724,7 @@
       </c>
       <c r="B666" s="2"/>
       <c r="C666" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D666" s="3"/>
       <c r="E666" s="3"/>
@@ -14753,7 +14759,7 @@
         <v>1</v>
       </c>
       <c r="B668" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C668" s="6" t="s">
         <v>11</v>
@@ -14939,7 +14945,7 @@
       </c>
       <c r="B704" s="2"/>
       <c r="C704" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D704" s="3"/>
       <c r="E704" s="3"/>
@@ -14974,7 +14980,7 @@
         <v>1</v>
       </c>
       <c r="B706" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C706" s="6" t="s">
         <v>11</v>
@@ -15226,7 +15232,7 @@
   <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="A1:G19"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18109,7 +18115,7 @@
   <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="A1:G19"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20992,7 +20998,7 @@
   <dimension ref="A1:G294"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A255" activeCellId="1" sqref="A1:G19 A255"/>
+      <selection pane="topLeft" activeCell="A255" activeCellId="0" sqref="A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25096,7 +25102,7 @@
   <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A159" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C175" activeCellId="1" sqref="A1:G19 C175"/>
+      <selection pane="topLeft" activeCell="C175" activeCellId="0" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28044,7 +28050,7 @@
   <dimension ref="A1:G624"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A85" activeCellId="1" sqref="A1:G19 A85"/>
+      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35219,7 +35225,7 @@
   <dimension ref="A1:G624"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="1" sqref="A1:G19 J16"/>
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41830,7 +41836,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G19"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41909,7 +41915,9 @@
       <c r="A5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="7"/>
@@ -41920,7 +41928,9 @@
       <c r="A6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>329</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
       <c r="E6" s="7"/>
@@ -42091,7 +42101,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A1:G19"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42119,11 +42129,11 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
